--- a/bh3/548279633638103674_2021-07-17_12-05-00.xlsx
+++ b/bh3/548279633638103674_2021-07-17_12-05-00.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4947834612</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-20 06:16:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44397.26135416667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -623,10 +637,8 @@
           <t>4947834612</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:33:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44397.02335648148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -690,10 +702,8 @@
           <t>4947832413</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-20 00:32:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44397.0225462963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>4945978994</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-19 20:28:10</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44396.85289351852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -824,10 +832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-19 17:58:45</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44396.74913194445</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -887,10 +893,8 @@
           <t>4944796444</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-19 17:45:34</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44396.73997685185</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -966,10 +970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-19 17:45:01</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44396.73959490741</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1045,10 +1047,8 @@
           <t>4944410752</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-19 16:46:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44396.69902777778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1124,10 +1124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-19 16:26:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44396.68525462963</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1209,10 +1207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-19 15:27:12</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44396.64388888889</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1276,10 +1272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:51:35</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44396.49415509259</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1347,10 +1341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:17:46</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44396.38733796297</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1418,10 +1410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-19 08:13:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44396.34292824074</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -1489,10 +1479,8 @@
           <t>4939396564</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:57:19</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44395.91480324074</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1556,10 +1544,8 @@
           <t>4936908718</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:53:22</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44395.66206018518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1635,10 +1621,8 @@
           <t>4936908718</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:52:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44395.66172453704</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1714,10 +1698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:12</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44395.50361111111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1789,10 +1771,8 @@
           <t>4935252313</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:28:44</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44395.47828703704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1856,10 +1836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:27:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44395.47766203704</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -1935,10 +1913,8 @@
           <t>4935237226</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:26:23</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.47665509259</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2002,10 +1978,8 @@
           <t>4935210549</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:21:45</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.4734375</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2069,10 +2043,8 @@
           <t>4935176493</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:16:38</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.46988425926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2136,10 +2108,8 @@
           <t>4935171185</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:15:38</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.46918981482</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2203,10 +2173,8 @@
           <t>4934478781</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:10:22</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.38219907408</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2282,10 +2250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:57:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44395.37325231481</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2349,10 +2315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:32:07</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44395.35563657407</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2428,10 +2392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-18 07:26:33</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44395.31010416667</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2512,10 +2474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:02:38</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44395.1268287037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2583,10 +2543,8 @@
           <t>4933268279</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:35:47</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44395.02484953704</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -2662,10 +2620,8 @@
           <t>4932596666</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:03:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44394.96103009259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2729,10 +2685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:50:53</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44394.91033564815</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2800,10 +2754,8 @@
           <t>4928128277</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:10:23</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44394.88221064815</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2879,10 +2831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:45:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44394.86508101852</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2961,10 +2911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:55:26</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44394.78849537037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3036,10 +2984,8 @@
           <t>4930362369</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:10:52</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44394.7575462963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3103,10 +3049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:04:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44394.75310185185</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3170,10 +3114,8 @@
           <t>4930267008</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:58:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44394.74861111111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3237,10 +3179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:55:06</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44394.74659722222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3304,10 +3244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:54:55</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44394.7464699074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3371,10 +3309,8 @@
           <t>4930177810</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:45:29</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44394.73991898148</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3438,10 +3374,8 @@
           <t>4928590909</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:22:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44394.72402777777</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3517,10 +3451,8 @@
           <t>4929790877</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:47:18</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44394.69951388889</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3588,10 +3520,8 @@
           <t>4929639633</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:25:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44394.68408564815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3663,10 +3593,8 @@
           <t>4929481131</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:56:32</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44394.66425925926</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3730,10 +3658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:35:57</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44394.64996527778</v>
       </c>
       <c r="I46" t="n">
         <v>18</v>
@@ -3797,10 +3723,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:32:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44394.64739583333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3869,10 +3793,8 @@
           <t>4929305995</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:25:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44394.64268518519</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3936,10 +3858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:10:43</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44394.63244212963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4003,10 +3923,8 @@
           <t>4929139999</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:58:42</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44394.62409722222</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4078,10 +3996,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:43:46</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44394.61372685185</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4148,10 +4064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:43:19</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44394.61341435185</v>
       </c>
       <c r="I52" t="n">
         <v>24</v>
@@ -4229,10 +4143,8 @@
           <t>4929017120</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:35:06</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44394.60770833334</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4300,10 +4212,8 @@
           <t>4929020439</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:34:41</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44394.60741898148</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4375,10 +4285,8 @@
           <t>4929010362</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:32:42</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44394.60604166667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4446,10 +4354,8 @@
           <t>4928938483</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:28:08</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44394.60287037037</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4525,10 +4431,8 @@
           <t>4928938483</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:21:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44394.59820601852</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4606,10 +4510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:06:33</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44394.58788194445</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -4673,10 +4575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:05:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44394.58712962963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4752,10 +4652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:04:22</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44394.58636574074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4831,10 +4729,8 @@
           <t>4928813568</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:01:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44394.58435185185</v>
       </c>
       <c r="I61" t="n">
         <v>7</v>
@@ -4902,10 +4798,8 @@
           <t>4928794762</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:57:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44394.58185185185</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4982,10 +4876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:56:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44394.58064814815</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5049,10 +4941,8 @@
           <t>4928779426</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:55:24</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44394.58013888889</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5124,10 +5014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:53:22</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44394.57872685185</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5191,10 +5079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:47:52</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44394.5749074074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5266,10 +5152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:47:39</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44394.57475694444</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5345,10 +5229,8 @@
           <t>4928726912</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:46:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44394.57414351852</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
@@ -5416,10 +5298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:42:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44394.57103009259</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5495,10 +5375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:39:26</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44394.56905092593</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5566,10 +5444,8 @@
           <t>4928658404</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:36:54</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44394.56729166667</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5641,10 +5517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:57</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44394.56663194444</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5726,10 +5600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44394.5665625</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5814,10 +5686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:45</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44394.56649305556</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5903,10 +5773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44394.56643518519</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5982,10 +5850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:32</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44394.5663425926</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6082,10 +5948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:27</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44394.56628472222</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6166,10 +6030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:23</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44394.56623842593</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6245,10 +6107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:32:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44394.56398148148</v>
       </c>
       <c r="I79" t="n">
         <v>21</v>
@@ -6312,10 +6172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:32:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44394.56388888889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6384,10 +6242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:30:59</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44394.56318287037</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6451,10 +6307,8 @@
           <t>4928590909</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:26:06</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44394.55979166667</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6530,10 +6384,8 @@
           <t>4928537284</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44394.55613425926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6598,10 +6450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:38</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44394.55599537037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6677,10 +6527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44394.55584490741</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
@@ -6752,10 +6600,8 @@
           <t>4928537284</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:13</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44394.55570601852</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6820,10 +6666,8 @@
           <t>4928547360</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:19:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44394.55541666667</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6895,10 +6739,8 @@
           <t>4928537284</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:17:56</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44394.55412037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6979,10 +6821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:17:03</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44394.55350694444</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7050,10 +6890,8 @@
           <t>4928526979</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:16:29</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44394.55311342593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7121,10 +6959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:16:10</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44394.55289351852</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7193,10 +7029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:14:37</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44394.55181712963</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7269,10 +7103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:13:07</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44394.55077546297</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7340,10 +7172,8 @@
           <t>4928499066</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:13:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44394.55077546297</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7407,10 +7237,8 @@
           <t>4928484829</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:11:17</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44394.54950231482</v>
       </c>
       <c r="I95" t="n">
         <v>17</v>
@@ -7486,10 +7314,8 @@
           <t>4928453734</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:06:38</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44394.54627314815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7553,10 +7379,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:59</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44394.54304398148</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7636,10 +7460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:57</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44394.54302083333</v>
       </c>
       <c r="I98" t="n">
         <v>71</v>
@@ -7715,10 +7537,8 @@
           <t>4928396372</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:37</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44394.54278935185</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7786,10 +7606,8 @@
           <t>4928409328</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:00:09</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44394.54177083333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7865,10 +7683,8 @@
           <t>4928406674</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:59:05</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44394.54103009259</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7940,10 +7756,8 @@
           <t>4928329737</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:59:00</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44394.54097222222</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
@@ -8011,10 +7825,8 @@
           <t>4928398825</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:58:41</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44394.54075231482</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -8082,10 +7894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:58:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44394.54068287037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8157,10 +7967,8 @@
           <t>4928396372</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:57:41</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44394.54005787037</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8232,10 +8040,8 @@
           <t>4928392122</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:57:13</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44394.53973379629</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8307,10 +8113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:56:23</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44394.53915509259</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8374,10 +8178,8 @@
           <t>4928383015</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:56:22</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44394.53914351852</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8449,10 +8251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:54:07</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44394.53758101852</v>
       </c>
       <c r="I109" t="n">
         <v>51</v>
@@ -8528,10 +8328,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:52:30</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44394.53645833334</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8595,10 +8393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:52:00</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44394.53611111111</v>
       </c>
       <c r="I111" t="n">
         <v>4</v>
@@ -8666,10 +8462,8 @@
           <t>4928343899</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:51:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44394.53559027778</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8733,10 +8527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:50:48</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44394.53527777778</v>
       </c>
       <c r="I113" t="n">
         <v>162</v>
@@ -8812,10 +8604,8 @@
           <t>4928329737</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:49:28</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44394.53435185185</v>
       </c>
       <c r="I114" t="n">
         <v>6</v>
@@ -8887,10 +8677,8 @@
           <t>4928335221</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:49:19</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44394.53424768519</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8958,10 +8746,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:48:26</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44394.53363425926</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9037,10 +8823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:47:27</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44394.53295138889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9104,10 +8888,8 @@
           <t>4928317673</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:47:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44394.53293981482</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9183,10 +8965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:45:32</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44394.53162037037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9258,10 +9038,8 @@
           <t>4928302621</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:45:25</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44394.53153935185</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9325,10 +9103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:44:51</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44394.53114583333</v>
       </c>
       <c r="I121" t="n">
         <v>4</v>
@@ -9400,10 +9176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:44:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44394.53063657408</v>
       </c>
       <c r="I122" t="n">
         <v>8</v>
@@ -9471,10 +9245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:43:16</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44394.5300462963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9542,10 +9314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:42:54</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44394.52979166667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9605,10 +9375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:37</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44394.52890046296</v>
       </c>
       <c r="I125" t="n">
         <v>24</v>
@@ -9668,10 +9436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:31</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44394.52883101852</v>
       </c>
       <c r="I126" t="n">
         <v>139</v>
@@ -9736,10 +9502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44394.52851851852</v>
       </c>
       <c r="I127" t="n">
         <v>15</v>
@@ -9807,10 +9571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:38:53</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44394.52700231481</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9882,10 +9644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44394.52556712963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9964,10 +9724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:24</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44394.52527777778</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10027,10 +9785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:18</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44394.52520833333</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10097,10 +9853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:11</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44394.52512731482</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10160,10 +9914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:07</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44394.52508101852</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10223,10 +9975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:34:10</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44394.52372685185</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10298,10 +10048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:33:49</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44394.5234837963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10365,10 +10113,8 @@
           <t>4928202406</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:31:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44394.52215277778</v>
       </c>
       <c r="I136" t="n">
         <v>19</v>
@@ -10436,10 +10182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:27:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44394.51918981481</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10515,10 +10259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:28</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44394.51837962963</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10594,10 +10336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:05</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44394.51811342593</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10662,10 +10402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:25:50</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44394.51793981482</v>
       </c>
       <c r="I140" t="n">
         <v>496</v>
@@ -10741,10 +10479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:25:48</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44394.51791666666</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10820,10 +10556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:25:28</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44394.51768518519</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10891,10 +10625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:25:25</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44394.51765046296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10970,10 +10702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:24:29</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44394.51700231482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11045,10 +10775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:41</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44394.51575231482</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11112,10 +10840,8 @@
           <t>4928128277</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:34</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44394.5156712963</v>
       </c>
       <c r="I146" t="n">
         <v>8</v>
@@ -11195,10 +10921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:45</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44394.51510416667</v>
       </c>
       <c r="I147" t="n">
         <v>6</v>
@@ -11266,10 +10990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:20:44</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44394.51439814815</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11341,10 +11063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:18:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44394.51258101852</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11412,10 +11132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:15:03</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44394.51045138889</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11487,10 +11205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:14:02</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44394.50974537037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11554,10 +11270,8 @@
           <t>4928063751</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:13:59</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44394.50971064815</v>
       </c>
       <c r="I152" t="n">
         <v>13</v>
@@ -11621,10 +11335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:13:32</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44394.50939814815</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11692,10 +11404,8 @@
           <t>4928052876</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:12:28</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44394.50865740741</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11763,10 +11473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44394.50696759259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11830,10 +11538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:42</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44394.50673611111</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11910,10 +11616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44394.50644675926</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11981,10 +11685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:30</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44394.50590277778</v>
       </c>
       <c r="I158" t="n">
         <v>325</v>
@@ -12060,10 +11762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:09</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44394.50565972222</v>
       </c>
       <c r="I159" t="n">
         <v>4</v>
@@ -12127,10 +11827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:03</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44394.50559027777</v>
       </c>
       <c r="I160" t="n">
         <v>190</v>
@@ -12203,10 +11901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:33</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44394.50524305556</v>
       </c>
       <c r="I161" t="n">
         <v>33</v>
@@ -12274,10 +11970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44394.50450231481</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12345,10 +12039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:47</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44394.5040162037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12420,10 +12112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:26</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44394.50377314815</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12499,10 +12189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:22</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44394.50372685185</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
